--- a/biology/Zoologie/Fruitachampsa/Fruitachampsa.xlsx
+++ b/biology/Zoologie/Fruitachampsa/Fruitachampsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruitachampsa callisoni
 Fruitachampsa est un genre éteint de crocodyliformes de la famille des Shartegosuchidae du Jurassique supérieur de la formation de Morrison au Colorado. Il a entre 150 et 148 millions d'années.
-Une seule espèce est rattachée au genre : Fruitachampsa callisoni, décrite par James M. Clark en 2011[1]. 
+Une seule espèce est rattachée au genre : Fruitachampsa callisoni, décrite par James M. Clark en 2011. 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De « Fruita » (ville à proximité du lieu de la découverte dans l'ouest du Colorado) et Champsa (crocodile en grec).
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruitachampsa appartient à la famille des Shartegosuchidae. Comme eux il n'a pas de fenêtre mandibulaire, et comme les crocodiles modernes il ne présente pas de fenêtre antéorbitaire. Cet animal était carnivore et doté d'un museau court. Il possédait un palais secondaire comme les crocodiles actuels, cela permettant de reculer les choanes en arrière dans la bouche. Il mesurait environ 1 mètre avec un crâne de 9 cm, ce qui en fait un grand Shartegosuchidae, et présente des protubérances sur la marge occipitale du squamosal et du pariétal. Les vertèbres sont procoeles, cas unique chez les Shartegosuchidae mais courant chez les crocodiles modernes. L'animal portait des ostéodermes répartis sur le dos en deux rangées. Les membres de Fruitachampsa sont minces, ce qui indique un animal terrestre.
 </t>
@@ -575,11 +591,13 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruitachampsa est un plus proche parent des Mesoeucrocodylia que des Protosuchia, mais n'appartient pas au clade des Mesoeucrocodylia. C'est un Shartegosuchidae, famille regroupant des animaux à la morphologie intermédiaire.
 Cladogramme des Crocodyliformes d'après Clark (2011) :
-En 2012, les résultats d'une grande analyse phylogénétique des Crocodyliformes par Mario Bronzati et ses collègues le positionnent comme un Crocodyliformes basal, en groupe frère du genre mongol Shartegosuchus  du même âge[2].
+En 2012, les résultats d'une grande analyse phylogénétique des Crocodyliformes par Mario Bronzati et ses collègues le positionnent comme un Crocodyliformes basal, en groupe frère du genre mongol Shartegosuchus  du même âge.
 </t>
         </is>
       </c>
